--- a/cleaned/bandhan_mutual_fund_portfolio.xlsx
+++ b/cleaned/bandhan_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,21 +511,17 @@
           <t>IN0020170174</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>250778700</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>250778700</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>254390.92</t>
@@ -521,17 +532,24 @@
           <t>0.5408</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities       </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.067293</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>IDF274</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Bandhan Mutual Fund</t>
         </is>
@@ -548,21 +566,17 @@
           <t>IN0020070069</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>182000000</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>182000000</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>189125.66</t>
@@ -573,17 +587,24 @@
           <t>0.402</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities       </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.067426</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>IDF274</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Bandhan Mutual Fund</t>
         </is>
@@ -600,21 +621,17 @@
           <t>IN0020220037</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10380000</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10380000</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>10554.39</t>
@@ -625,17 +642,24 @@
           <t>0.0224</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities       </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.067116</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>IDF274</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Bandhan Mutual Fund</t>
         </is>
